--- a/MVandebroek/TAKEN/TASK0/1. FILES/vragen_questions_TEST.xlsx
+++ b/MVandebroek/TAKEN/TASK0/1. FILES/vragen_questions_TEST.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0105757\Dropbox\Toledo 2021-2022\vragen_pool\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u0118298\OneDrive\Projects\MVandebroek\TAKEN\TASK0\1. FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8842214-6762-4E55-A895-861B58D89401}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5B2B61-B38A-4CDF-A942-1C89434E7468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2496" yWindow="48" windowWidth="20664" windowHeight="10812" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Vraag ID</t>
   </si>
@@ -88,6 +88,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Voer een regressie analyse uit met als afhankelijke variabele Y1, en onafhankelijke variabelen X2 en X4. Neem ook de interactieterm op. Geef de p-waarde die bij de parameter van de interactieterm hoort.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform a regression with dependent variable Y1 and independent variable X2. Give the hat-value of observation 20. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voer een regressie uit met als afhankelijke variabele Y1 en onafhankelijke variabele X2. Geef de hat-value van observatie 20. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform a regression with dependent variable Y3 and independent variable X4. Give the hat-value of observation 12. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voer een regressie uit met als afhankelijke variabele Y3 en onafhankelijke variabele X4. Geef de hat-value van observatie 12. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perform a regression with dependent variable Y2 and independent variable X3. Give the hat-value of observation 35. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Voer een regressie uit met als afhankelijke variabele Y2 en onafhankelijke variabele X3. Geef de hat-value van observatie 35. </t>
   </si>
 </sst>
 </file>
@@ -103,7 +121,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +146,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,7 +165,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -151,6 +175,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,19 +459,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="71.7265625" customWidth="1"/>
+    <col min="2" max="2" width="71.77734375" customWidth="1"/>
     <col min="3" max="3" width="72" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -455,7 +482,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -466,7 +493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -477,7 +504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -488,7 +515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -499,7 +526,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -510,7 +537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -521,7 +548,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -532,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -543,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -552,6 +579,39 @@
       </c>
       <c r="C10" s="3" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
